--- a/posts/Lectures/2024-07-21-applied-multivariate-statistics-esrm64503/HWs/Responses/ESRM 64503_Homework 1.xlsx
+++ b/posts/Lectures/2024-07-21-applied-multivariate-statistics-esrm64503/HWs/Responses/ESRM 64503_Homework 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jihong/Documents/Projects/website-jihong/posts/Lectures/2024-07-21-applied-multivariate-statistics-esrm64503/HWs/Responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179FD30A-CD43-B848-ACE7-E4095D742346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE520E-598F-6B43-A5A2-5F2034D67B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="37140" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,19 +555,19 @@
     <t>Good Job!</t>
   </si>
   <si>
-    <t>Question 2's residual covaraince term should be "2 * Cov_beta_2_3" not " 2 * Cov_beta_2_3 * 2"</t>
-  </si>
-  <si>
-    <t>Good job on Q1. For Q2, you should look at beta_2 (simple main effect of New), which is located at [3, 3] of variance-covariance matrix.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For Q1, the varaince of beta_0 is located at [1,1] not [2,2]; For Q2, the variance of beta_1 is located at [3, 3] not [3, 2] </t>
-  </si>
-  <si>
     <t>For Q1, we look at Group mean of Senior-old, which should be beta_0 + beta_1 not beta_1 + beta_3; Good job on Question 2.</t>
   </si>
   <si>
-    <t>Good job on Q1. For Q2, Cov_beta_1_3 should located at [3, 4] not "[2, 4]"</t>
+    <t>Question 2's residual covaraince term should be "2 * Cov_beta_2_3" not " 2 * Cov_beta_2_3 * 2" (-3)</t>
+  </si>
+  <si>
+    <t>Good job on Q1. For Q2, you should use beta_2 (simple main effect of New), which is located at vcov(model1)[3, 3] of variance-covariance matrix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For Q1, the varaince of beta_0 is located at [1,1] not [2,2] (-3 points); For Q2, the variance of beta_1 is located at [3, 3] not [3, 2] (-3 points) </t>
+  </si>
+  <si>
+    <t>Good job on Q1. For Q2, Cov_beta_1_3 should located at [3, 4] not "[2, 4]" (-3 points)</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1136,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>54</v>
@@ -1145,7 +1145,7 @@
         <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="224" x14ac:dyDescent="0.2">
@@ -1247,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="J6" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>54</v>
@@ -1256,7 +1256,7 @@
         <v>56</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="192" x14ac:dyDescent="0.2">
@@ -1358,7 +1358,7 @@
         <v>33</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>54</v>
@@ -1367,7 +1367,7 @@
         <v>56</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="208" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>36</v>
       </c>
       <c r="J10" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>54</v>
@@ -1404,7 +1404,7 @@
         <v>56</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="256" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>44</v>
       </c>
       <c r="J13" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>54</v>
